--- a/biology/Zoologie/Glyphoglossus/Glyphoglossus.xlsx
+++ b/biology/Zoologie/Glyphoglossus/Glyphoglossus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphoglossus est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphoglossus est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuf espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (1 octobre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (1 octobre 2015) :
 Glyphoglossus brooksii (Boulenger, 1904)
 Glyphoglossus capsus (Das,Min, Hsu, Hertwig &amp; Haas, 2014)
 Glyphoglossus flavus (Kiew, 1984)
@@ -581,9 +597,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Calluella[3] a été placé en synonymie avec Glyphoglossus  par Peloso et al. en 2015[4]. Les genres Colpoglossus[5], Dyscophina[6] et Calliglutus[7] avait été placés en synonymie avec Calluella par Parker en 1934[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Calluella a été placé en synonymie avec Glyphoglossus  par Peloso et al. en 2015. Les genres Colpoglossus, Dyscophina et Calliglutus avait été placés en synonymie avec Calluella par Parker en 1934.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre, Glyphoglossus, du grec γλύφω, glypho, « sculpté », et γλῶσσα, glossa, « langue », fait référence à sa langue divisée en deux moitiés latérales séparées par un profond sillon.
 </t>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Günther, 1869 "1868" : First account of species of tailless batrachians added to the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 1868, p. 478-490 (texte intégral).</t>
         </is>
